--- a/_project_docs/SSE19_BD_IFL.xlsx
+++ b/_project_docs/SSE19_BD_IFL.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D770E-39B7-428F-8215-B2512DBF202F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739FE43F-B764-41DF-BA55-7F7E807723E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{9A5B308B-8289-4B83-8A80-2326D7D60745}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="7695" windowHeight="9045" xr2:uid="{9A5B308B-8289-4B83-8A80-2326D7D60745}"/>
   </bookViews>
   <sheets>
-    <sheet name="PREPL" sheetId="2" r:id="rId1"/>
+    <sheet name="IFL" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREPL!$A$4:$H$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">PREPL!$4:$4</definedName>
-    <definedName name="System_Code">PREPL!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IFL!$A$4:$H$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">IFL!$4:$4</definedName>
+    <definedName name="System_Code">IFL!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
